--- a/excel/PI6C5946002_P1_page_1.xlsx
+++ b/excel/PI6C5946002_P1_page_1.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DNC</t>
+          <t xml:space="preserve">5    6    7    8    </t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>REF_IN-</t>
+          <t>Q1-</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VREF-AC</t>
+          <t>Q1+</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VTH</t>
+          <t>Q0-</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>16  15  14  13</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DNC</t>
+          <t>16  15  14  13</t>
         </is>
       </c>
     </row>
